--- a/biology/Botanique/Croton_(genre)/Croton_(genre).xlsx
+++ b/biology/Botanique/Croton_(genre)/Croton_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton Écouter est un genre de plantes à fleurs de la famille des Euphorbiaceae. Ce sont des arbres, des arbustes et des plantes herbacées . C'est l'un des plus vastes genres parmi les Angiospermes, regroupant près de 1 300 espèces, soit environ 0,5 % de toutes les plantes à fleurs. Ses espèces sont présentes dans toutes les régions tropicales et subtropicales du monde. L'espèce la plus connue de ce genre est probablement Croton tiglium, le croton cathartique, originaire de l'Asie du Sud-Est.
 Les plantes du genre Croton ne doivent pas être confondues avec les crotons des horticulteurs, de l'espèce Codiaeum variegatum. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les crotons sont des plantes laticifères riches en alcaloïdes et en terpénoïdes. Plusieurs espèces ont des propriétés médicinales.
 			Une feuille de Croton ciliatoglandulifer.
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778). Le nom du genre vient du grec « Kroton » (κρότος (krótos)), qui signifie « tique », à cause de la ressemblance des graines à des tiques.
-En classification phylogénétique APG III (2009)[1] comme en classification classique de Cronquist (1981)[2], il est assigné à la famille des Euphorbiaceae.
+En classification phylogénétique APG III (2009) comme en classification classique de Cronquist (1981), il est assigné à la famille des Euphorbiaceae.
 </t>
         </is>
       </c>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,7 +621,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Synonymes
@@ -615,7 +635,7 @@
 Tridesmis Lour., Fl. Cochinch.: 576 (1790).
 Schradera Willd., Gött. J. Naturwiss. 1: 2 (1797), nom. illeg.
 Schousboea Willd., Sp. Pl., ed. 4, 2: 578 (1799).
-Crotonopsis Michx., Fl. Bor.-Amer. 2: 185 (1803).[3]
+Crotonopsis Michx., Fl. Bor.-Amer. 2: 185 (1803).
 Leptemon Raf., Med. Repos., ser. 2, 5: 352 (1808).
 Lascadium Raf., Fl. Ludov.: 114 (1817).
 Friesia Spreng., Anleit. Kenntn. Gew. 2(2): 885 (1818).
@@ -654,7 +674,7 @@
 Lasiogyne Klotzsch, Nov. Actorum Acad. Caes. Leop.-Carol. Nat. Cur. 19(Suppl. 1): 418 (1843).
 Palanostigma Mart. ex Klotzsch, London J. Bot. 2: 49 (1843).
 Tiglium Klotzsch, Nov. Actorum Acad. Caes. Leop.-Carol. Nat. Cur. 19(Suppl. 1): 418 (1843).
-Eremocarpus Benth., Bot. Voy. Sulphur: 53 (1844).[3]
+Eremocarpus Benth., Bot. Voy. Sulphur: 53 (1844).
 Macrocroton Klotzsch in M.R.Schomburgk, Fauna Fl. Brit. Gui.: 1186 (1848).
 Barhamia Klotzsch in B.Seemann, Narr. Voy. Herald: 104 (1853).
 Cyclostigma Klotzsch in B.C.Seemann, Bot. Voy. Herald: 204 (1853), nom. illeg.
